--- a/emp.xlsx
+++ b/emp.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2018/07</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1977/02/03</t>
+          <t>1977-02-03</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>770203-2******</t>
+          <t>770203-1******</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -642,10 +642,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2011/06/01</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>2011-06-01</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2011-06-01</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>9년 8개월</t>
@@ -676,7 +680,11 @@
           <t>OCA(Oracle)</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>그리드원 RPA 솔루션 교육</t>
@@ -710,7 +718,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021/12</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -720,7 +728,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1988/02/01</t>
+          <t>1988-02-01</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -728,7 +736,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>880201-2******</t>
+          <t>880201-1******</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -743,10 +751,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2017/02/01</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>2017-02-01</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2017-02-01</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>4년 0개월</t>
@@ -772,7 +784,11 @@
           <t>O</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>MOS Master,OCA(Oracle),사회조사분석사</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>O</t>
@@ -780,99 +796,6 @@
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>이사</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>김종식</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>특급</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>본사대기</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2021/01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>남</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1967/03/27</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>53</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>670327-2******</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>숭실대학교 정보과학대학원 정보통신융합학과</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>경기도 고양시 일산서구 일산동</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2006/09/20</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>14년 4개월</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>27년 9개월</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>건강보험 + KOSA</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -885,7 +808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,26 +878,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이사</t>
+          <t>부장</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>김종식</t>
+          <t>홍길동</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>숭실대학교 정보과학대학원</t>
+          <t>겨울대학교</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>정보통신융합학과</t>
+          <t>컴퓨터 공학</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>38583</v>
+        <v>36951</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -989,26 +912,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이사</t>
+          <t>과장</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>김종식</t>
+          <t>강남역</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>숭실대학교</t>
+          <t>가을대학교</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사학과</t>
+          <t>통계학과</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>34201</v>
+        <v>40972</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1016,412 +939,6 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>부장</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>겨울대학교</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>컴퓨터 공학</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>36951</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>과장</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>강남역</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>가을대학교</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>통계학과</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>40972</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>평생교육진흥원</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>컴퓨터학과</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>35475</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>연세대학교 대학원</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>전산학과</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>36213</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>연세대학교</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>전산학과</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>35485</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>현대전문대학교</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>정보처리학과</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>34758</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>계명문화대학교</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>건축과</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>37309</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>명지전문대 컴퓨터정보학과</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>컴퓨터정보학과</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>40592</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>이화여자대학교</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>불어불문학과</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>42429</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>부경대학교</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">컴퓨터공학과 </t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>42426</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>동덕여자대학교</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>정보통계학과</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>42237</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>고려대학교</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>한문학과</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>43521</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>한양대학교</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>광고학과</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>41873</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>명지대학교</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>국제통상학과</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>42048</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>한남대학교</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">컴퓨터통신무인기술학과 </t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>43875</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>정상</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">
